--- a/2018周报/20180223周报/技术支撑服务人员周报日报-20180223.xlsx
+++ b/2018周报/20180223周报/技术支撑服务人员周报日报-20180223.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13056"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23250" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="29">
   <si>
     <t>项目名称</t>
   </si>
@@ -98,6 +98,14 @@
   </si>
   <si>
     <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
+  </si>
+  <si>
+    <t>代码</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>听歌狂人活动开发</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -584,23 +592,23 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="48.44140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="53.77734375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="48.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="53.75" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -626,7 +634,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -644,7 +652,7 @@
       <c r="G2" s="6"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -662,7 +670,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -680,7 +688,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -698,7 +706,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -716,7 +724,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -734,7 +742,7 @@
       <c r="G7" s="8"/>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
@@ -752,7 +760,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -770,7 +778,7 @@
       <c r="G9" s="10"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -788,7 +796,7 @@
       <c r="G10" s="11"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
@@ -806,7 +814,7 @@
       <c r="G11" s="11"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
@@ -824,7 +832,7 @@
       <c r="G12" s="10"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
@@ -839,10 +847,14 @@
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="13"/>
-    </row>
-    <row r="14" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="G13" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
@@ -860,7 +872,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
         <v>8</v>
       </c>
@@ -878,7 +890,7 @@
       <c r="G15" s="14"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B16" s="5" t="s">
         <v>9</v>
       </c>
@@ -893,7 +905,7 @@
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="8:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="8:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H17" s="15"/>
     </row>
   </sheetData>
@@ -911,41 +923,41 @@
       <selection sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="17"/>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="17"/>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="17"/>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="17"/>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="17"/>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="17"/>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="17"/>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="17"/>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="17"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="17"/>
     </row>
   </sheetData>
